--- a/house_price_label.xlsx
+++ b/house_price_label.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dukesjmuedu-my.sharepoint.com/personal/mcbarrnr_dukes_jmu_edu/Documents/MachineLearning/lab5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dukesjmuedu-my.sharepoint.com/personal/mcbarrnr_dukes_jmu_edu/Documents/MachineLearning/Lab7/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="house_price_lebel_raw" sheetId="1" r:id="rId1"/>
